--- a/Local_Network/LocalNetwork-IPs-Ports.xlsx
+++ b/Local_Network/LocalNetwork-IPs-Ports.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB81CCA-9FF2-442A-96C1-B3583E26E3E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E49A07-118B-4AA7-8173-4E527DC3AF52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>192.168.1.65</t>
-  </si>
-  <si>
-    <t>SERVER PC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>192.168.1.75</t>
   </si>
@@ -43,37 +37,13 @@
     <t>OUTDOOR DATA WEMOS-WIFI</t>
   </si>
   <si>
-    <t>NEURAL CONTROLLER ARDUINO-ETHERNET</t>
-  </si>
-  <si>
-    <t>smissinhome.ddns.net</t>
-  </si>
-  <si>
-    <t>Translate to public ip of server</t>
-  </si>
-  <si>
-    <t>smissinhome.ddns.net:61456</t>
-  </si>
-  <si>
-    <t>WOL PACKET FOR POWER ON SERVER</t>
-  </si>
-  <si>
-    <t>smissinhome.ddns.net:61457</t>
-  </si>
-  <si>
-    <t>smissinhome.ddns.net:61458</t>
-  </si>
-  <si>
-    <t>smissinhome.ddns.net:61459</t>
-  </si>
-  <si>
-    <t>Translate to SERVER'S LIVESITE</t>
-  </si>
-  <si>
-    <t>Translate to wemos server</t>
-  </si>
-  <si>
-    <t>Translate to neural controller's server</t>
+    <t>192.168.1.100</t>
+  </si>
+  <si>
+    <t>SERVER</t>
+  </si>
+  <si>
+    <t>CONTROLLER ARDUINO-ETHERNET</t>
   </si>
 </sst>
 </file>
@@ -402,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,82 +386,63 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -568,11 +519,6 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
